--- a/power_stage_calculations.xlsx
+++ b/power_stage_calculations.xlsx
@@ -15,8 +15,76 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>efficiency</t>
+  </si>
+  <si>
+    <t>yellows are input</t>
+  </si>
+  <si>
+    <t>input current</t>
+  </si>
+  <si>
+    <t>min input voltage</t>
+  </si>
+  <si>
+    <t>nominal input voltage</t>
+  </si>
+  <si>
+    <t>max input voltage</t>
+  </si>
+  <si>
+    <t>output voltage</t>
+  </si>
+  <si>
+    <t>output current</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>inductor ripple current</t>
+  </si>
+  <si>
+    <t>duty cylce</t>
+  </si>
+  <si>
+    <t>max duty cycle</t>
+  </si>
+  <si>
+    <t>diode voltage drop</t>
+  </si>
+  <si>
+    <t>switching frequncy</t>
+  </si>
+  <si>
+    <t>another min inductor value</t>
+  </si>
+  <si>
+    <t>min inductor value</t>
+  </si>
+  <si>
+    <t>min output capacitor</t>
+  </si>
+  <si>
+    <t>min coupling capacitor</t>
+  </si>
+  <si>
+    <t>desired output ripple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">!usually up to 2% </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -27,12 +95,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -47,8 +121,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -343,15 +422,240 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="G1" s="1"/>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3">
+        <f>200000</f>
+        <v>200000</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3">
+        <f>B5*2/100</f>
+        <v>0.1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3">
+        <f xml:space="preserve"> (B5*B6) / (B1*B2)</f>
+        <v>3.4722222222222223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3">
+        <f>B12*B7</f>
+        <v>1.0416666666666667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3">
+        <f>(B5+B8)/(B3+B5+B8)</f>
+        <v>0.27710843373493976</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="3">
+        <f>(B5+B8)/(B2+B5+B8)</f>
+        <v>0.38983050847457629</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <f>(B4*B14)/(2*B9*B13)</f>
+        <v>1.3966265060240964E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4">
+        <f>(B2*B15)/(B13*B9)</f>
+        <v>1.6840677966101693E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4">
+        <f>(B6*B15)/(0.05*B4*B9)</f>
+        <v>9.281678773204198E-6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="4">
+        <f>(B5*B15)/(B10*0.5*B9)</f>
+        <v>1.9491525423728814E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/power_stage_calculations.xlsx
+++ b/power_stage_calculations.xlsx
@@ -83,7 +83,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    <numFmt numFmtId="164" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -127,7 +127,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,7 +425,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>

--- a/power_stage_calculations.xlsx
+++ b/power_stage_calculations.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>efficiency</t>
   </si>
@@ -76,6 +76,60 @@
   </si>
   <si>
     <t xml:space="preserve">!usually up to 2% </t>
+  </si>
+  <si>
+    <t>compensator network calculations</t>
+  </si>
+  <si>
+    <t>f R</t>
+  </si>
+  <si>
+    <t>f RHPZ</t>
+  </si>
+  <si>
+    <t>hand input values</t>
+  </si>
+  <si>
+    <t>for hand input(selected) values</t>
+  </si>
+  <si>
+    <t>f c</t>
+  </si>
+  <si>
+    <t>compensator 0</t>
+  </si>
+  <si>
+    <t>pole to cancel ESR zero</t>
+  </si>
+  <si>
+    <t>C out ESR</t>
+  </si>
+  <si>
+    <t>compensator frequency calculations</t>
+  </si>
+  <si>
+    <t>cc1</t>
+  </si>
+  <si>
+    <t>cc2</t>
+  </si>
+  <si>
+    <t>ota transconductance</t>
+  </si>
+  <si>
+    <t>current gain</t>
+  </si>
+  <si>
+    <t>V ref</t>
+  </si>
+  <si>
+    <t>rc1 for hand input</t>
+  </si>
+  <si>
+    <t>r shunt/sense</t>
+  </si>
+  <si>
+    <t>calculated current gain ???</t>
   </si>
 </sst>
 </file>
@@ -85,7 +139,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,8 +148,17 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,6 +168,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -121,13 +190,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,28 +518,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="4" customWidth="1"/>
+    <col min="5" max="7" width="10.7109375" style="4"/>
+    <col min="8" max="8" width="17.28515625" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="10.7109375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1" s="2">
         <v>0.8</v>
       </c>
-      <c r="C1" s="5"/>
+      <c r="C1" s="3"/>
       <c r="G1" s="1"/>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -453,15 +550,19 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>9</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>15</v>
       </c>
     </row>
@@ -469,7 +570,7 @@
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>21</v>
       </c>
     </row>
@@ -477,7 +578,7 @@
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>5</v>
       </c>
     </row>
@@ -485,7 +586,7 @@
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>5</v>
       </c>
     </row>
@@ -493,7 +594,7 @@
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>0.3</v>
       </c>
     </row>
@@ -501,7 +602,7 @@
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>0.75</v>
       </c>
     </row>
@@ -509,149 +610,282 @@
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <f>200000</f>
         <v>200000</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <f>B5*2/100</f>
         <v>0.1</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" t="s">
+      <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <f xml:space="preserve"> (B5*B6) / (B1*B2)</f>
         <v>3.4722222222222223</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" t="s">
+      <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <f>B12*B7</f>
         <v>1.0416666666666667</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" t="s">
+      <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <f>(B5+B8)/(B3+B5+B8)</f>
         <v>0.27710843373493976</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" t="s">
+      <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <f>(B5+B8)/(B2+B5+B8)</f>
         <v>0.38983050847457629</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" t="s">
+      <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="6">
         <f>(B4*B14)/(2*B9*B13)</f>
         <v>1.3966265060240964E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="6">
         <f>(B2*B15)/(B13*B9)</f>
         <v>1.6840677966101693E-5</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="C17" s="8">
+        <f>8*10^-6</f>
+        <v>7.9999999999999996E-6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="6">
         <f>(B6*B15)/(0.05*B4*B9)</f>
         <v>9.281678773204198E-6</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+      <c r="C18" s="8">
+        <f>10*10^-6</f>
+        <v>9.9999999999999991E-6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="6">
         <f>(B5*B15)/(B10*0.5*B9)</f>
         <v>1.9491525423728814E-4</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="2"/>
+      <c r="C19" s="8">
+        <f>220*10^-6</f>
+        <v>2.1999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2">
+        <f>(((1-B15)^2)*B5)/(2*3.14159*B15*B17*0.5*B6)</f>
+        <v>18051.615598234963</v>
+      </c>
+      <c r="C22" s="2">
+        <f>(((1-B15)^2)*B5)/(2*3.14159*B15*C17*0.5*B6)</f>
+        <v>38000.180632216645</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
+        <f>1/(2*3.14159*(B17*B18)^(1/2))</f>
+        <v>12729.971926178165</v>
+      </c>
+      <c r="C23" s="2">
+        <f>1/(2*3.14159*(C17*C18)^(1/2))</f>
+        <v>17794.078615444647</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="2">
+        <f>MIN(B22:B23)/6</f>
+        <v>2121.6619876963609</v>
+      </c>
+      <c r="C24" s="2">
+        <f>MIN(C22:C23)/6</f>
+        <v>2965.6797692407745</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="2">
+        <f>B24/4</f>
+        <v>530.41549692409023</v>
+      </c>
+      <c r="C25" s="2">
+        <f>C24/4</f>
+        <v>741.41994231019362</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="6">
+        <f>70*10^-3</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C26" s="6">
+        <f>70*10^-3</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2">
+        <f>1/(2*3.14159*B26*B19)</f>
+        <v>11664.782079430879</v>
+      </c>
+      <c r="C27" s="9">
+        <f>1/(2*3.14159*C26*C19)</f>
+        <v>10334.745293794693</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="6">
+        <f>550*10^-6</f>
+        <v>5.4999999999999992E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="6">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="7">
+        <f>1.2</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="6">
+        <f>(2*3.14159*B24*B19*B5*B5*(1+B15))/(B31*B30*B34*B2*B15)</f>
+        <v>38988.911065600558</v>
+      </c>
+      <c r="C35" s="6">
+        <f>(2*3.14159*C24*C19*B5*B5*(1+B15))/(B31*B30*B34*B2*B15)</f>
+        <v>61512.873777168155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="6">
+        <f>1/(2*3.14159*B25*B35)</f>
+        <v>7.6959668528908028E-9</v>
+      </c>
+      <c r="C36" s="6">
+        <f>1/(2*3.14159*C25*C35)</f>
+        <v>3.4897170731707295E-9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="6">
+        <f>1/(2*3.14159*B35*B27)</f>
+        <v>3.4994739334097905E-10</v>
+      </c>
+      <c r="C37" s="6">
+        <f>1/(2*3.14159*C35*C27)</f>
+        <v>2.5035409751439783E-10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/power_stage_calculations.xlsx
+++ b/power_stage_calculations.xlsx
@@ -78,9 +78,6 @@
     <t xml:space="preserve">!usually up to 2% </t>
   </si>
   <si>
-    <t>compensator network calculations</t>
-  </si>
-  <si>
     <t>f R</t>
   </si>
   <si>
@@ -123,13 +120,16 @@
     <t>V ref</t>
   </si>
   <si>
-    <t>rc1 for hand input</t>
-  </si>
-  <si>
     <t>r shunt/sense</t>
   </si>
   <si>
     <t>calculated current gain ???</t>
+  </si>
+  <si>
+    <t>compensator network calculations(OTA)</t>
+  </si>
+  <si>
+    <t>rc1</t>
   </si>
 </sst>
 </file>
@@ -158,7 +158,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,6 +177,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -190,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -222,6 +228,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -229,6 +238,105 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>5482</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>619126</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8639176" y="4958482"/>
+          <a:ext cx="2800350" cy="1985242"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>49693</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1027" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5440843" y="5162550"/>
+          <a:ext cx="3064981" cy="1790700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -516,15 +624,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.85546875" style="4" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" style="4" customWidth="1"/>
@@ -555,7 +663,7 @@
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -579,7 +687,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -587,7 +695,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -622,7 +730,7 @@
       </c>
       <c r="B10" s="2">
         <f>B5*2/100</f>
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>19</v>
@@ -652,7 +760,7 @@
       </c>
       <c r="B14" s="2">
         <f>(B5+B8)/(B3+B5+B8)</f>
-        <v>0.27710843373493976</v>
+        <v>0.63190184049079756</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -661,7 +769,7 @@
       </c>
       <c r="B15" s="2">
         <f>(B5+B8)/(B2+B5+B8)</f>
-        <v>0.38983050847457629</v>
+        <v>0.74100719424460426</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -670,7 +778,7 @@
       </c>
       <c r="B16" s="6">
         <f>(B4*B14)/(2*B9*B13)</f>
-        <v>1.3966265060240964E-5</v>
+        <v>3.1847852760736193E-5</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -679,11 +787,11 @@
       </c>
       <c r="B17" s="6">
         <f>(B2*B15)/(B13*B9)</f>
-        <v>1.6840677966101693E-5</v>
+        <v>3.2011510791366902E-5</v>
       </c>
       <c r="C17" s="8">
-        <f>8*10^-6</f>
-        <v>7.9999999999999996E-6</v>
+        <f>100*10^-6</f>
+        <v>9.9999999999999991E-5</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -692,11 +800,11 @@
       </c>
       <c r="B18" s="6">
         <f>(B6*B15)/(0.05*B4*B9)</f>
-        <v>9.281678773204198E-6</v>
+        <v>3.5286056868790678E-6</v>
       </c>
       <c r="C18" s="8">
-        <f>10*10^-6</f>
-        <v>9.9999999999999991E-6</v>
+        <f>4.7*10^-6</f>
+        <v>4.6999999999999999E-6</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -705,11 +813,11 @@
       </c>
       <c r="B19" s="6">
         <f>(B5*B15)/(B10*0.5*B9)</f>
-        <v>1.9491525423728814E-4</v>
+        <v>3.7050359712230212E-4</v>
       </c>
       <c r="C19" s="8">
-        <f>220*10^-6</f>
-        <v>2.1999999999999998E-4</v>
+        <f>470*10^-6</f>
+        <v>4.6999999999999999E-4</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -717,68 +825,68 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2">
         <f>(((1-B15)^2)*B5)/(2*3.14159*B15*B17*0.5*B6)</f>
-        <v>18051.615598234963</v>
+        <v>22502.838748860169</v>
       </c>
       <c r="C22" s="2">
         <f>(((1-B15)^2)*B5)/(2*3.14159*B15*C17*0.5*B6)</f>
-        <v>38000.180632216645</v>
+        <v>7203.4986544552667</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="2">
         <f>1/(2*3.14159*(B17*B18)^(1/2))</f>
-        <v>12729.971926178165</v>
+        <v>14974.966102316735</v>
       </c>
       <c r="C23" s="2">
         <f>1/(2*3.14159*(C17*C18)^(1/2))</f>
-        <v>17794.078615444647</v>
+        <v>7341.2762966275459</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2">
         <f>MIN(B22:B23)/6</f>
-        <v>2121.6619876963609</v>
+        <v>2495.8276837194558</v>
       </c>
       <c r="C24" s="2">
         <f>MIN(C22:C23)/6</f>
-        <v>2965.6797692407745</v>
+        <v>1200.5831090758777</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2">
         <f>B24/4</f>
-        <v>530.41549692409023</v>
+        <v>623.95692092986394</v>
       </c>
       <c r="C25" s="2">
         <f>C24/4</f>
-        <v>741.41994231019362</v>
+        <v>300.14577726896943</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="6">
         <f>70*10^-3</f>
@@ -791,15 +899,15 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2">
         <f>1/(2*3.14159*B26*B19)</f>
-        <v>11664.782079430879</v>
+        <v>6136.6312831891601</v>
       </c>
       <c r="C27" s="9">
         <f>1/(2*3.14159*C26*C19)</f>
-        <v>10334.745293794693</v>
+        <v>4837.5403502868776</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -807,13 +915,13 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="10" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B29" s="7"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="6">
         <f>550*10^-6</f>
@@ -822,7 +930,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" s="6">
         <f>1</f>
@@ -831,65 +939,96 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="7">
         <f>1.2</f>
         <v>1.2</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:10">
       <c r="A35" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B35" s="6">
         <f>(2*3.14159*B24*B19*B5*B5*(1+B15))/(B31*B30*B34*B2*B15)</f>
-        <v>38988.911065600558</v>
+        <v>1436343.262421034</v>
       </c>
       <c r="C35" s="6">
         <f>(2*3.14159*C24*C19*B5*B5*(1+B15))/(B31*B30*B34*B2*B15)</f>
-        <v>61512.873777168155</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>876478.57018372533</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B36" s="6">
         <f>1/(2*3.14159*B25*B35)</f>
-        <v>7.6959668528908028E-9</v>
+        <v>1.7758556062412403E-10</v>
       </c>
       <c r="C36" s="6">
         <f>1/(2*3.14159*C25*C35)</f>
-        <v>3.4897170731707295E-9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>6.0498827615158613E-10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" s="6">
         <f>1/(2*3.14159*B35*B27)</f>
-        <v>3.4994739334097905E-10</v>
+        <v>1.8056444080676007E-11</v>
       </c>
       <c r="C37" s="6">
         <f>1/(2*3.14159*C35*C27)</f>
-        <v>2.5035409751439783E-10</v>
-      </c>
+        <v>3.7536570909090891E-11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="10"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="B40" s="6"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/power_stage_calculations.xlsx
+++ b/power_stage_calculations.xlsx
@@ -627,7 +627,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>

--- a/power_stage_calculations.xlsx
+++ b/power_stage_calculations.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>efficiency</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>rc1</t>
+  </si>
+  <si>
+    <t>coupling capacitor ripple voltage</t>
   </si>
 </sst>
 </file>
@@ -246,13 +249,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>400051</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>5482</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>619126</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -293,13 +296,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>49693</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -626,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
@@ -803,8 +806,8 @@
         <v>3.5286056868790678E-6</v>
       </c>
       <c r="C18" s="8">
-        <f>4.7*10^-6</f>
-        <v>4.6999999999999999E-6</v>
+        <f>10*10^-6</f>
+        <v>9.9999999999999991E-6</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -821,194 +824,201 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="B20" s="7"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="10" t="s">
+      <c r="A20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="7">
+        <f>(B6*B15)/(B18*B9)</f>
+        <v>1.05</v>
+      </c>
+      <c r="C20" s="6">
+        <f>(B6*B15)/(C18*B9)</f>
+        <v>0.37050359712230219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="4" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="4" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B23" s="2">
         <f>(((1-B15)^2)*B5)/(2*3.14159*B15*B17*0.5*B6)</f>
         <v>22502.838748860169</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C23" s="2">
         <f>(((1-B15)^2)*B5)/(2*3.14159*B15*C17*0.5*B6)</f>
         <v>7203.4986544552667</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="4" t="s">
+    <row r="24" spans="1:3">
+      <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B24" s="2">
         <f>1/(2*3.14159*(B17*B18)^(1/2))</f>
         <v>14974.966102316735</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C24" s="2">
         <f>1/(2*3.14159*(C17*C18)^(1/2))</f>
-        <v>7341.2762966275459</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="2">
-        <f>MIN(B22:B23)/6</f>
-        <v>2495.8276837194558</v>
-      </c>
-      <c r="C24" s="2">
-        <f>MIN(C22:C23)/6</f>
-        <v>1200.5831090758777</v>
+        <v>5032.9254615789778</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2">
-        <f>B24/4</f>
-        <v>623.95692092986394</v>
+        <f>MIN(B23:B24)/6</f>
+        <v>2495.8276837194558</v>
       </c>
       <c r="C25" s="2">
-        <f>C24/4</f>
-        <v>300.14577726896943</v>
+        <f>MIN(C23:C24)/6</f>
+        <v>838.820910263163</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <f>B25/4</f>
+        <v>623.95692092986394</v>
+      </c>
+      <c r="C26" s="2">
+        <f>C25/4</f>
+        <v>209.70522756579075</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B27" s="6">
         <f>70*10^-3</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C27" s="6">
         <f>70*10^-3</f>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="4" t="s">
+    <row r="28" spans="1:3">
+      <c r="A28" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="2">
-        <f>1/(2*3.14159*B26*B19)</f>
+      <c r="B28" s="2">
+        <f>1/(2*3.14159*B27*B19)</f>
         <v>6136.6312831891601</v>
       </c>
-      <c r="C27" s="9">
-        <f>1/(2*3.14159*C26*C19)</f>
+      <c r="C28" s="9">
+        <f>1/(2*3.14159*C27*C19)</f>
         <v>4837.5403502868776</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="B28" s="7"/>
-    </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="10" t="s">
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="7"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B31" s="6">
         <f>550*10^-6</f>
         <v>5.4999999999999992E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="5" t="s">
+    <row r="32" spans="1:3">
+      <c r="A32" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B32" s="6">
         <f>1</f>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:10">
+      <c r="A33" s="1" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B35" s="7">
         <f>1.2</f>
         <v>1.2</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="6">
-        <f>(2*3.14159*B24*B19*B5*B5*(1+B15))/(B31*B30*B34*B2*B15)</f>
-        <v>1436343.262421034</v>
-      </c>
-      <c r="C35" s="6">
-        <f>(2*3.14159*C24*C19*B5*B5*(1+B15))/(B31*B30*B34*B2*B15)</f>
-        <v>876478.57018372533</v>
-      </c>
-    </row>
     <row r="36" spans="1:10">
       <c r="A36" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B36" s="6">
-        <f>1/(2*3.14159*B25*B35)</f>
-        <v>1.7758556062412403E-10</v>
+        <f>(2*3.14159*B25*B19*B5*B5*(1+B15))/(B32*B31*B35*B2*B15)</f>
+        <v>1436343.262421034</v>
       </c>
       <c r="C36" s="6">
-        <f>1/(2*3.14159*C25*C35)</f>
-        <v>6.0498827615158613E-10</v>
+        <f>(2*3.14159*C25*C19*B5*B5*(1+B15))/(B32*B31*B35*B2*B15)</f>
+        <v>612376.22494420945</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="6">
+        <f>1/(2*3.14159*B26*B36)</f>
+        <v>1.7758556062412403E-10</v>
+      </c>
+      <c r="C37" s="6">
+        <f>1/(2*3.14159*C26*C36)</f>
+        <v>1.2393470019342352E-9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="6">
-        <f>1/(2*3.14159*B35*B27)</f>
+      <c r="B38" s="6">
+        <f>1/(2*3.14159*B36*B28)</f>
         <v>1.8056444080676007E-11</v>
       </c>
-      <c r="C37" s="6">
-        <f>1/(2*3.14159*C35*C27)</f>
-        <v>3.7536570909090891E-11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
+      <c r="C38" s="6">
+        <f>1/(2*3.14159*C36*C28)</f>
+        <v>5.372514258370719E-11</v>
+      </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="10"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
     </row>
     <row r="40" spans="1:10">
       <c r="B40" s="6"/>

--- a/power_stage_calculations.xlsx
+++ b/power_stage_calculations.xlsx
@@ -629,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
